--- a/python_Proyect/Resultados/Estimadores_frecuencia.xlsx
+++ b/python_Proyect/Resultados/Estimadores_frecuencia.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR10"/>
+  <dimension ref="A1:AX10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,44 +470,50 @@
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="19" customWidth="1" min="5" max="5"/>
     <col width="17" customWidth="1" min="6" max="6"/>
-    <col width="13" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="26" customWidth="1" min="9" max="9"/>
-    <col width="27" customWidth="1" min="10" max="10"/>
-    <col width="25" customWidth="1" min="11" max="11"/>
-    <col width="26" customWidth="1" min="12" max="12"/>
-    <col width="26" customWidth="1" min="13" max="13"/>
-    <col width="27" customWidth="1" min="14" max="14"/>
-    <col width="25" customWidth="1" min="15" max="15"/>
-    <col width="26" customWidth="1" min="16" max="16"/>
-    <col width="23" customWidth="1" min="17" max="17"/>
-    <col width="24" customWidth="1" min="18" max="18"/>
-    <col width="22" customWidth="1" min="19" max="19"/>
-    <col width="23" customWidth="1" min="20" max="20"/>
-    <col width="15" customWidth="1" min="21" max="21"/>
-    <col width="16" customWidth="1" min="22" max="22"/>
-    <col width="19" customWidth="1" min="23" max="23"/>
-    <col width="15" customWidth="1" min="24" max="24"/>
-    <col width="24" customWidth="1" min="25" max="25"/>
-    <col width="25" customWidth="1" min="26" max="26"/>
-    <col width="23" customWidth="1" min="27" max="27"/>
-    <col width="24" customWidth="1" min="28" max="28"/>
-    <col width="27" customWidth="1" min="29" max="29"/>
-    <col width="28" customWidth="1" min="30" max="30"/>
-    <col width="26" customWidth="1" min="31" max="31"/>
-    <col width="27" customWidth="1" min="32" max="32"/>
-    <col width="25" customWidth="1" min="33" max="33"/>
-    <col width="26" customWidth="1" min="34" max="34"/>
-    <col width="24" customWidth="1" min="35" max="35"/>
-    <col width="25" customWidth="1" min="36" max="36"/>
-    <col width="30" customWidth="1" min="37" max="37"/>
-    <col width="31" customWidth="1" min="38" max="38"/>
-    <col width="29" customWidth="1" min="39" max="39"/>
-    <col width="30" customWidth="1" min="40" max="40"/>
-    <col width="19" customWidth="1" min="41" max="41"/>
-    <col width="19" customWidth="1" min="42" max="42"/>
-    <col width="19" customWidth="1" min="43" max="43"/>
-    <col width="19" customWidth="1" min="44" max="44"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="17" customWidth="1" min="10" max="10"/>
+    <col width="17" customWidth="1" min="11" max="11"/>
+    <col width="18" customWidth="1" min="12" max="12"/>
+    <col width="16" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="27" customWidth="1" min="16" max="16"/>
+    <col width="25" customWidth="1" min="17" max="17"/>
+    <col width="26" customWidth="1" min="18" max="18"/>
+    <col width="26" customWidth="1" min="19" max="19"/>
+    <col width="27" customWidth="1" min="20" max="20"/>
+    <col width="25" customWidth="1" min="21" max="21"/>
+    <col width="26" customWidth="1" min="22" max="22"/>
+    <col width="23" customWidth="1" min="23" max="23"/>
+    <col width="24" customWidth="1" min="24" max="24"/>
+    <col width="22" customWidth="1" min="25" max="25"/>
+    <col width="23" customWidth="1" min="26" max="26"/>
+    <col width="15" customWidth="1" min="27" max="27"/>
+    <col width="19" customWidth="1" min="28" max="28"/>
+    <col width="19" customWidth="1" min="29" max="29"/>
+    <col width="15" customWidth="1" min="30" max="30"/>
+    <col width="24" customWidth="1" min="31" max="31"/>
+    <col width="25" customWidth="1" min="32" max="32"/>
+    <col width="23" customWidth="1" min="33" max="33"/>
+    <col width="24" customWidth="1" min="34" max="34"/>
+    <col width="27" customWidth="1" min="35" max="35"/>
+    <col width="28" customWidth="1" min="36" max="36"/>
+    <col width="26" customWidth="1" min="37" max="37"/>
+    <col width="27" customWidth="1" min="38" max="38"/>
+    <col width="25" customWidth="1" min="39" max="39"/>
+    <col width="26" customWidth="1" min="40" max="40"/>
+    <col width="24" customWidth="1" min="41" max="41"/>
+    <col width="25" customWidth="1" min="42" max="42"/>
+    <col width="30" customWidth="1" min="43" max="43"/>
+    <col width="31" customWidth="1" min="44" max="44"/>
+    <col width="29" customWidth="1" min="45" max="45"/>
+    <col width="30" customWidth="1" min="46" max="46"/>
+    <col width="19" customWidth="1" min="47" max="47"/>
+    <col width="19" customWidth="1" min="48" max="48"/>
+    <col width="19" customWidth="1" min="49" max="49"/>
+    <col width="19" customWidth="1" min="50" max="50"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -543,190 +549,220 @@
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>Singletons</t>
+          <t>Singletons_Low</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Doubletons</t>
+          <t>Singletons_Mean</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
+          <t>Singletons_SD</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Singletons_Upp</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Doubletons_Low</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Doubletons_Mean</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Doubletons_SD</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Doubletons_Upp</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
           <t>1st_order_jackknife_Low</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>1st_order_jackknife_Mean</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>1st_order_jackknife_SD</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>1st_order_jackknife_Upp</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>2nd_order_jackknife_Low</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>2nd_order_jackknife_Mean</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>2nd_order_jackknife_SD</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>2nd_order_jackknife_Upp</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>Chao2_Chao_1987__Low</t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>Chao2_Chao_1987__Mean</t>
         </is>
       </c>
-      <c r="S1" s="2" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>Chao2_Chao_1987__SD</t>
         </is>
       </c>
-      <c r="T1" s="2" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>Chao2_Chao_1987__Upp</t>
         </is>
       </c>
-      <c r="U1" s="2" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t>Chao2_bc_Low</t>
         </is>
       </c>
-      <c r="V1" s="2" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>Chao2_bc_Mean</t>
         </is>
       </c>
-      <c r="W1" s="2" t="inlineStr">
+      <c r="AC1" s="2" t="inlineStr">
         <is>
           <t>Chao2_bc_SD</t>
         </is>
       </c>
-      <c r="X1" s="2" t="inlineStr">
+      <c r="AD1" s="2" t="inlineStr">
         <is>
           <t>Chao2_bc_Upp</t>
         </is>
       </c>
-      <c r="Y1" s="2" t="inlineStr">
+      <c r="AE1" s="2" t="inlineStr">
         <is>
           <t>Homogeneous_Model_Low</t>
         </is>
       </c>
-      <c r="Z1" s="2" t="inlineStr">
+      <c r="AF1" s="2" t="inlineStr">
         <is>
           <t>Homogeneous_Model_Mean</t>
         </is>
       </c>
-      <c r="AA1" s="2" t="inlineStr">
+      <c r="AG1" s="2" t="inlineStr">
         <is>
           <t>Homogeneous_Model_SD</t>
         </is>
       </c>
-      <c r="AB1" s="2" t="inlineStr">
+      <c r="AH1" s="2" t="inlineStr">
         <is>
           <t>Homogeneous_Model_Upp</t>
         </is>
       </c>
-      <c r="AC1" s="2" t="inlineStr">
+      <c r="AI1" s="2" t="inlineStr">
         <is>
           <t>ICE_1_Lee_Chao_1994__Low</t>
         </is>
       </c>
-      <c r="AD1" s="2" t="inlineStr">
+      <c r="AJ1" s="2" t="inlineStr">
         <is>
           <t>ICE_1_Lee_Chao_1994__Mean</t>
         </is>
       </c>
-      <c r="AE1" s="2" t="inlineStr">
+      <c r="AK1" s="2" t="inlineStr">
         <is>
           <t>ICE_1_Lee_Chao_1994__SD</t>
         </is>
       </c>
-      <c r="AF1" s="2" t="inlineStr">
+      <c r="AL1" s="2" t="inlineStr">
         <is>
           <t>ICE_1_Lee_Chao_1994__Upp</t>
         </is>
       </c>
-      <c r="AG1" s="2" t="inlineStr">
+      <c r="AM1" s="2" t="inlineStr">
         <is>
           <t>ICE_Lee_Chao_1994__Low</t>
         </is>
       </c>
-      <c r="AH1" s="2" t="inlineStr">
+      <c r="AN1" s="2" t="inlineStr">
         <is>
           <t>ICE_Lee_Chao_1994__Mean</t>
         </is>
       </c>
-      <c r="AI1" s="2" t="inlineStr">
+      <c r="AO1" s="2" t="inlineStr">
         <is>
           <t>ICE_Lee_Chao_1994__SD</t>
         </is>
       </c>
-      <c r="AJ1" s="2" t="inlineStr">
+      <c r="AP1" s="2" t="inlineStr">
         <is>
           <t>ICE_Lee_Chao_1994__Upp</t>
         </is>
       </c>
-      <c r="AK1" s="2" t="inlineStr">
+      <c r="AQ1" s="2" t="inlineStr">
         <is>
           <t>iChao2_Chiu_et_al_2014__Low</t>
         </is>
       </c>
-      <c r="AL1" s="2" t="inlineStr">
+      <c r="AR1" s="2" t="inlineStr">
         <is>
           <t>iChao2_Chiu_et_al_2014__Mean</t>
         </is>
       </c>
-      <c r="AM1" s="2" t="inlineStr">
+      <c r="AS1" s="2" t="inlineStr">
         <is>
           <t>iChao2_Chiu_et_al_2014__SD</t>
         </is>
       </c>
-      <c r="AN1" s="2" t="inlineStr">
+      <c r="AT1" s="2" t="inlineStr">
         <is>
           <t>iChao2_Chiu_et_al_2014__Upp</t>
         </is>
       </c>
-      <c r="AO1" s="2" t="inlineStr">
+      <c r="AU1" s="2" t="inlineStr">
         <is>
           <t>Bootstrap_Low</t>
         </is>
       </c>
-      <c r="AP1" s="2" t="inlineStr">
+      <c r="AV1" s="2" t="inlineStr">
         <is>
           <t>Bootstrap_Mean</t>
         </is>
       </c>
-      <c r="AQ1" s="2" t="inlineStr">
+      <c r="AW1" s="2" t="inlineStr">
         <is>
           <t>Bootstrap_SD</t>
         </is>
       </c>
-      <c r="AR1" s="2" t="inlineStr">
+      <c r="AX1" s="2" t="inlineStr">
         <is>
           <t>Bootstrap_Upp</t>
         </is>
@@ -754,117 +790,135 @@
         <v>111</v>
       </c>
       <c r="G2" s="3" t="n">
+        <v>86.592</v>
+      </c>
+      <c r="H2" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="I2" s="3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>105.408</v>
+      </c>
+      <c r="K2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="L2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="n">
         <v>81</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="P2" s="3" t="n">
         <v>95.938</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="Q2" s="3" t="n">
         <v>7.88176872778428</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="R2" s="3" t="n">
         <v>111</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="S2" s="3" t="n">
         <v>81</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="T2" s="3" t="n">
         <v>95.938</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="U2" s="3" t="n">
         <v>7.88176872778428</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="V2" s="3" t="n">
         <v>111</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="W2" s="3" t="n">
         <v>81</v>
       </c>
-      <c r="R2" s="3" t="n">
+      <c r="X2" s="3" t="n">
         <v>95.938</v>
       </c>
-      <c r="S2" s="3" t="n">
+      <c r="Y2" s="3" t="n">
         <v>7.88176872778428</v>
       </c>
-      <c r="T2" s="3" t="n">
+      <c r="Z2" s="3" t="n">
         <v>111</v>
       </c>
-      <c r="U2" s="3" t="n">
+      <c r="AA2" s="3" t="n">
         <v>81</v>
       </c>
-      <c r="V2" s="3" t="n">
+      <c r="AB2" s="3" t="n">
         <v>95.938</v>
       </c>
-      <c r="W2" s="3" t="n">
+      <c r="AC2" s="3" t="n">
         <v>7.88176872778428</v>
       </c>
-      <c r="X2" s="3" t="n">
+      <c r="AD2" s="3" t="n">
         <v>111</v>
       </c>
-      <c r="Y2" s="3" t="n">
+      <c r="AE2" s="3" t="n">
         <v>81</v>
       </c>
-      <c r="Z2" s="3" t="n">
+      <c r="AF2" s="3" t="n">
         <v>95.938</v>
       </c>
-      <c r="AA2" s="3" t="n">
+      <c r="AG2" s="3" t="n">
         <v>7.88176872778428</v>
       </c>
-      <c r="AB2" s="3" t="n">
+      <c r="AH2" s="3" t="n">
         <v>111</v>
       </c>
-      <c r="AC2" s="3" t="n">
+      <c r="AI2" s="3" t="n">
         <v>81</v>
       </c>
-      <c r="AD2" s="3" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>95.938</v>
       </c>
-      <c r="AE2" s="3" t="n">
+      <c r="AK2" s="3" t="n">
         <v>7.88176872778428</v>
       </c>
-      <c r="AF2" s="3" t="n">
+      <c r="AL2" s="3" t="n">
         <v>111</v>
       </c>
-      <c r="AG2" s="3" t="n">
+      <c r="AM2" s="3" t="n">
         <v>81</v>
       </c>
-      <c r="AH2" s="3" t="n">
+      <c r="AN2" s="3" t="n">
         <v>95.938</v>
       </c>
-      <c r="AI2" s="3" t="n">
+      <c r="AO2" s="3" t="n">
         <v>7.88176872778428</v>
       </c>
-      <c r="AJ2" s="3" t="n">
+      <c r="AP2" s="3" t="n">
         <v>111</v>
       </c>
-      <c r="AK2" s="3" t="n">
+      <c r="AQ2" s="3" t="n">
         <v>81</v>
       </c>
-      <c r="AL2" s="3" t="n">
+      <c r="AR2" s="3" t="n">
         <v>95.938</v>
       </c>
-      <c r="AM2" s="3" t="n">
+      <c r="AS2" s="3" t="n">
         <v>7.88176872778428</v>
       </c>
-      <c r="AN2" s="3" t="n">
+      <c r="AT2" s="3" t="n">
         <v>111</v>
       </c>
-      <c r="AO2" s="3" t="n">
+      <c r="AU2" s="3" t="n">
         <v>81</v>
       </c>
-      <c r="AP2" s="3" t="n">
+      <c r="AV2" s="3" t="n">
         <v>95.938</v>
       </c>
-      <c r="AQ2" s="3" t="n">
+      <c r="AW2" s="3" t="n">
         <v>7.88176872778428</v>
       </c>
-      <c r="AR2" s="3" t="n">
+      <c r="AX2" s="3" t="n">
         <v>111</v>
       </c>
     </row>
@@ -890,118 +944,136 @@
         <v>130</v>
       </c>
       <c r="G3" s="3" t="n">
+        <v>75.768</v>
+      </c>
+      <c r="H3" s="3" t="n">
         <v>84</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="I3" s="3" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>92.232</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>26.158</v>
+      </c>
+      <c r="L3" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="I3" s="3" t="n">
-        <v>96.97499999999999</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>113.112</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>8.50939867827721</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>130</v>
-      </c>
       <c r="M3" s="3" t="n">
-        <v>96.97499999999999</v>
+        <v>1.45</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>113.112</v>
+        <v>31.842</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>8.50939867827721</v>
+        <v>141.368666666667</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>130</v>
+        <v>158.125333333333</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>96.97499999999999</v>
+        <v>9.292352621243939</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>113.112</v>
+        <v>177.197</v>
       </c>
       <c r="S3" s="3" t="n">
-        <v>8.50939867827721</v>
+        <v>152.398</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>130</v>
+        <v>172.236333333333</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>96.97499999999999</v>
+        <v>11.0799376552575</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>113.112</v>
+        <v>195.233666666667</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>8.50939867827721</v>
+        <v>144.484333333333</v>
       </c>
       <c r="X3" s="3" t="n">
-        <v>130</v>
+        <v>170.428</v>
       </c>
       <c r="Y3" s="3" t="n">
-        <v>96.97499999999999</v>
+        <v>16.1469444579786</v>
       </c>
       <c r="Z3" s="3" t="n">
-        <v>113.112</v>
+        <v>207.182666666667</v>
       </c>
       <c r="AA3" s="3" t="n">
-        <v>8.50939867827721</v>
+        <v>143.719</v>
       </c>
       <c r="AB3" s="3" t="n">
-        <v>130</v>
+        <v>169.054666666667</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>96.97499999999999</v>
+        <v>15.7167573831487</v>
       </c>
       <c r="AD3" s="3" t="n">
-        <v>113.112</v>
+        <v>204.731</v>
       </c>
       <c r="AE3" s="3" t="n">
-        <v>8.50939867827721</v>
+        <v>134.955333333333</v>
       </c>
       <c r="AF3" s="3" t="n">
-        <v>130</v>
+        <v>152.491666666667</v>
       </c>
       <c r="AG3" s="3" t="n">
-        <v>96.97499999999999</v>
+        <v>10.1459240498154</v>
       </c>
       <c r="AH3" s="3" t="n">
-        <v>113.112</v>
+        <v>174.129666666667</v>
       </c>
       <c r="AI3" s="3" t="n">
-        <v>8.50939867827721</v>
+        <v>153.388333333333</v>
       </c>
       <c r="AJ3" s="3" t="n">
-        <v>130</v>
+        <v>184.715333333333</v>
       </c>
       <c r="AK3" s="3" t="n">
-        <v>96.97499999999999</v>
+        <v>19.7166723491351</v>
       </c>
       <c r="AL3" s="3" t="n">
-        <v>113.112</v>
+        <v>230.08</v>
       </c>
       <c r="AM3" s="3" t="n">
-        <v>8.50939867827721</v>
+        <v>146.389333333333</v>
       </c>
       <c r="AN3" s="3" t="n">
-        <v>130</v>
+        <v>170.830333333333</v>
       </c>
       <c r="AO3" s="3" t="n">
-        <v>96.97499999999999</v>
+        <v>14.7237301722644</v>
       </c>
       <c r="AP3" s="3" t="n">
-        <v>113.112</v>
+        <v>203.508666666667</v>
       </c>
       <c r="AQ3" s="3" t="n">
-        <v>8.50939867827721</v>
+        <v>151.686333333333</v>
       </c>
       <c r="AR3" s="3" t="n">
-        <v>130</v>
+        <v>173.757</v>
+      </c>
+      <c r="AS3" s="3" t="n">
+        <v>12.6404818729446</v>
+      </c>
+      <c r="AT3" s="3" t="n">
+        <v>200.639333333333</v>
+      </c>
+      <c r="AU3" s="3" t="n">
+        <v>65.55687500000001</v>
+      </c>
+      <c r="AV3" s="3" t="n">
+        <v>76.7711666666667</v>
+      </c>
+      <c r="AW3" s="3" t="n">
+        <v>5.89513748518952</v>
+      </c>
+      <c r="AX3" s="3" t="n">
+        <v>88.06812499999999</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
@@ -1026,118 +1098,136 @@
         <v>168</v>
       </c>
       <c r="G4" s="3" t="n">
+        <v>76.67</v>
+      </c>
+      <c r="H4" s="3" t="n">
         <v>85</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="I4" s="3" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>38.786</v>
+      </c>
+      <c r="L4" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="I4" s="3" t="n">
-        <v>132</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>149.244</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>8.86075487624937</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>168</v>
-      </c>
       <c r="M4" s="3" t="n">
-        <v>132</v>
+        <v>2.15</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>149.244</v>
+        <v>47.214</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>8.86075487624937</v>
+        <v>201.737333333333</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>168</v>
+        <v>220.312666666667</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>132</v>
+        <v>10.7029365147036</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>149.244</v>
+        <v>243.394</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>8.86075487624937</v>
+        <v>223.796</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>168</v>
+        <v>248.534666666667</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>132</v>
+        <v>14.2781065827308</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>149.244</v>
+        <v>279.467333333333</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>8.86075487624937</v>
+        <v>207.968666666667</v>
       </c>
       <c r="X4" s="3" t="n">
-        <v>168</v>
+        <v>244.918</v>
       </c>
       <c r="Y4" s="3" t="n">
-        <v>132</v>
+        <v>24.412120188173</v>
       </c>
       <c r="Z4" s="3" t="n">
-        <v>149.244</v>
+        <v>303.365333333333</v>
       </c>
       <c r="AA4" s="3" t="n">
-        <v>8.86075487624937</v>
+        <v>206.438</v>
       </c>
       <c r="AB4" s="3" t="n">
-        <v>168</v>
+        <v>242.171333333333</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>132</v>
+        <v>23.5517460385131</v>
       </c>
       <c r="AD4" s="3" t="n">
-        <v>149.244</v>
+        <v>298.462</v>
       </c>
       <c r="AE4" s="3" t="n">
-        <v>8.86075487624937</v>
+        <v>188.910666666667</v>
       </c>
       <c r="AF4" s="3" t="n">
-        <v>168</v>
+        <v>209.045333333333</v>
       </c>
       <c r="AG4" s="3" t="n">
-        <v>132</v>
+        <v>12.4100793718465</v>
       </c>
       <c r="AH4" s="3" t="n">
-        <v>149.244</v>
+        <v>237.259333333333</v>
       </c>
       <c r="AI4" s="3" t="n">
-        <v>8.86075487624937</v>
+        <v>225.776666666667</v>
       </c>
       <c r="AJ4" s="3" t="n">
-        <v>168</v>
+        <v>273.492666666667</v>
       </c>
       <c r="AK4" s="3" t="n">
-        <v>132</v>
+        <v>31.5515759704859</v>
       </c>
       <c r="AL4" s="3" t="n">
-        <v>149.244</v>
+        <v>349.16</v>
       </c>
       <c r="AM4" s="3" t="n">
-        <v>8.86075487624937</v>
+        <v>211.778666666667</v>
       </c>
       <c r="AN4" s="3" t="n">
-        <v>168</v>
+        <v>245.722666666667</v>
       </c>
       <c r="AO4" s="3" t="n">
-        <v>132</v>
+        <v>21.5656916167444</v>
       </c>
       <c r="AP4" s="3" t="n">
-        <v>149.244</v>
+        <v>296.017333333333</v>
       </c>
       <c r="AQ4" s="3" t="n">
-        <v>8.86075487624937</v>
+        <v>222.372666666667</v>
       </c>
       <c r="AR4" s="3" t="n">
-        <v>168</v>
+        <v>251.576</v>
+      </c>
+      <c r="AS4" s="3" t="n">
+        <v>17.399195018105</v>
+      </c>
+      <c r="AT4" s="3" t="n">
+        <v>290.278666666667</v>
+      </c>
+      <c r="AU4" s="3" t="n">
+        <v>50.11375</v>
+      </c>
+      <c r="AV4" s="3" t="n">
+        <v>57.6043333333333</v>
+      </c>
+      <c r="AW4" s="3" t="n">
+        <v>3.90850624259476</v>
+      </c>
+      <c r="AX4" s="3" t="n">
+        <v>65.13625</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
@@ -1162,117 +1252,135 @@
         <v>216</v>
       </c>
       <c r="G5" s="3" t="n">
+        <v>99.22</v>
+      </c>
+      <c r="H5" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="I5" s="3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>120.78</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>34.276</v>
+      </c>
+      <c r="L5" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="M5" s="3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>41.724</v>
+      </c>
+      <c r="O5" s="3" t="n">
         <v>262.106</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="P5" s="3" t="n">
         <v>282.5</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="Q5" s="3" t="n">
         <v>12.1135204081633</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="R5" s="3" t="n">
         <v>309.591</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="S5" s="3" t="n">
         <v>295.194</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="T5" s="3" t="n">
         <v>324.833</v>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="U5" s="3" t="n">
         <v>17.4762755102041</v>
       </c>
-      <c r="P5" s="3" t="n">
+      <c r="V5" s="3" t="n">
         <v>363.701</v>
       </c>
-      <c r="Q5" s="3" t="n">
+      <c r="W5" s="3" t="n">
         <v>271.453</v>
       </c>
-      <c r="R5" s="3" t="n">
+      <c r="X5" s="3" t="n">
         <v>319.408</v>
       </c>
-      <c r="S5" s="3" t="n">
+      <c r="Y5" s="3" t="n">
         <v>32.6772959183674</v>
       </c>
-      <c r="T5" s="3" t="n">
+      <c r="Z5" s="3" t="n">
         <v>399.548</v>
       </c>
-      <c r="U5" s="3" t="n">
+      <c r="AA5" s="3" t="n">
         <v>269.157</v>
       </c>
-      <c r="V5" s="3" t="n">
+      <c r="AB5" s="3" t="n">
         <v>315.288</v>
       </c>
-      <c r="W5" s="3" t="n">
+      <c r="AC5" s="3" t="n">
         <v>31.3867346938776</v>
       </c>
-      <c r="X5" s="3" t="n">
+      <c r="AD5" s="3" t="n">
         <v>392.193</v>
       </c>
-      <c r="Y5" s="3" t="n">
+      <c r="AE5" s="3" t="n">
         <v>242.866</v>
       </c>
-      <c r="Z5" s="3" t="n">
+      <c r="AF5" s="3" t="n">
         <v>265.599</v>
       </c>
-      <c r="AA5" s="3" t="n">
+      <c r="AG5" s="3" t="n">
         <v>14.6742346938775</v>
       </c>
-      <c r="AB5" s="3" t="n">
+      <c r="AH5" s="3" t="n">
         <v>300.389</v>
       </c>
-      <c r="AC5" s="3" t="n">
+      <c r="AI5" s="3" t="n">
         <v>298.165</v>
       </c>
-      <c r="AD5" s="3" t="n">
+      <c r="AJ5" s="3" t="n">
         <v>362.27</v>
       </c>
-      <c r="AE5" s="3" t="n">
+      <c r="AK5" s="3" t="n">
         <v>43.3864795918367</v>
       </c>
-      <c r="AF5" s="3" t="n">
+      <c r="AL5" s="3" t="n">
         <v>468.24</v>
       </c>
-      <c r="AG5" s="3" t="n">
+      <c r="AM5" s="3" t="n">
         <v>277.168</v>
       </c>
-      <c r="AH5" s="3" t="n">
+      <c r="AN5" s="3" t="n">
         <v>320.615</v>
       </c>
-      <c r="AI5" s="3" t="n">
+      <c r="AO5" s="3" t="n">
         <v>28.4076530612245</v>
       </c>
-      <c r="AJ5" s="3" t="n">
+      <c r="AP5" s="3" t="n">
         <v>388.526</v>
       </c>
-      <c r="AK5" s="3" t="n">
+      <c r="AQ5" s="3" t="n">
         <v>293.059</v>
       </c>
-      <c r="AL5" s="3" t="n">
+      <c r="AR5" s="3" t="n">
         <v>329.395</v>
       </c>
-      <c r="AM5" s="3" t="n">
+      <c r="AS5" s="3" t="n">
         <v>22.1579081632653</v>
       </c>
-      <c r="AN5" s="3" t="n">
+      <c r="AT5" s="3" t="n">
         <v>379.918</v>
       </c>
-      <c r="AO5" s="3" t="n">
+      <c r="AU5" s="3" t="n">
         <v>34.670625</v>
       </c>
-      <c r="AP5" s="3" t="n">
+      <c r="AV5" s="3" t="n">
         <v>38.4375</v>
       </c>
-      <c r="AQ5" s="3" t="n">
+      <c r="AW5" s="3" t="n">
         <v>1.921875</v>
       </c>
-      <c r="AR5" s="3" t="n">
+      <c r="AX5" s="3" t="n">
         <v>42.204375</v>
       </c>
     </row>
@@ -1298,117 +1406,135 @@
         <v>250</v>
       </c>
       <c r="G6" s="3" t="n">
+        <v>100.122</v>
+      </c>
+      <c r="H6" s="3" t="n">
         <v>111</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="I6" s="3" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>121.878</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>49.61</v>
+      </c>
+      <c r="L6" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="M6" s="3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>60.39</v>
+      </c>
+      <c r="O6" s="3" t="n">
         <v>303.272</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="P6" s="3" t="n">
         <v>324.8</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="Q6" s="3" t="n">
         <v>12.7413265306123</v>
       </c>
-      <c r="L6" s="3" t="n">
+      <c r="R6" s="3" t="n">
         <v>353.218</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="S6" s="3" t="n">
         <v>334.457</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="T6" s="3" t="n">
         <v>366.65</v>
       </c>
-      <c r="O6" s="3" t="n">
+      <c r="U6" s="3" t="n">
         <v>19.1102040816327</v>
       </c>
-      <c r="P6" s="3" t="n">
+      <c r="V6" s="3" t="n">
         <v>409.369</v>
       </c>
-      <c r="Q6" s="3" t="n">
+      <c r="W6" s="3" t="n">
         <v>290.719</v>
       </c>
-      <c r="R6" s="3" t="n">
+      <c r="X6" s="3" t="n">
         <v>325.607</v>
       </c>
-      <c r="S6" s="3" t="n">
+      <c r="Y6" s="3" t="n">
         <v>23.475</v>
       </c>
-      <c r="T6" s="3" t="n">
+      <c r="Z6" s="3" t="n">
         <v>382.741</v>
       </c>
-      <c r="U6" s="3" t="n">
+      <c r="AA6" s="3" t="n">
         <v>289.259</v>
       </c>
-      <c r="V6" s="3" t="n">
+      <c r="AB6" s="3" t="n">
         <v>323.214</v>
       </c>
-      <c r="W6" s="3" t="n">
+      <c r="AC6" s="3" t="n">
         <v>22.8464285714286</v>
       </c>
-      <c r="X6" s="3" t="n">
+      <c r="AD6" s="3" t="n">
         <v>378.817</v>
       </c>
-      <c r="Y6" s="3" t="n">
+      <c r="AE6" s="3" t="n">
         <v>270.302</v>
       </c>
-      <c r="Z6" s="3" t="n">
+      <c r="AF6" s="3" t="n">
         <v>288.35</v>
       </c>
-      <c r="AA6" s="3" t="n">
+      <c r="AG6" s="3" t="n">
         <v>11.6311224489796</v>
       </c>
-      <c r="AB6" s="3" t="n">
+      <c r="AH6" s="3" t="n">
         <v>315.896</v>
       </c>
-      <c r="AC6" s="3" t="n">
+      <c r="AI6" s="3" t="n">
         <v>322.81</v>
       </c>
-      <c r="AD6" s="3" t="n">
+      <c r="AJ6" s="3" t="n">
         <v>375.06</v>
       </c>
-      <c r="AE6" s="3" t="n">
+      <c r="AK6" s="3" t="n">
         <v>34.6813775510204</v>
       </c>
-      <c r="AF6" s="3" t="n">
+      <c r="AL6" s="3" t="n">
         <v>458.761</v>
       </c>
-      <c r="AG6" s="3" t="n">
+      <c r="AM6" s="3" t="n">
         <v>304.603</v>
       </c>
-      <c r="AH6" s="3" t="n">
+      <c r="AN6" s="3" t="n">
         <v>340.828</v>
       </c>
-      <c r="AI6" s="3" t="n">
+      <c r="AO6" s="3" t="n">
         <v>23.3614795918367</v>
       </c>
-      <c r="AJ6" s="3" t="n">
+      <c r="AP6" s="3" t="n">
         <v>396.18</v>
       </c>
-      <c r="AK6" s="3" t="n">
+      <c r="AQ6" s="3" t="n">
         <v>314.592</v>
       </c>
-      <c r="AL6" s="3" t="n">
+      <c r="AR6" s="3" t="n">
         <v>338.658</v>
       </c>
-      <c r="AM6" s="3" t="n">
+      <c r="AS6" s="3" t="n">
         <v>14.1589285714286</v>
       </c>
-      <c r="AN6" s="3" t="n">
+      <c r="AT6" s="3" t="n">
         <v>370.095</v>
       </c>
-      <c r="AO6" s="3" t="n">
+      <c r="AU6" s="3" t="n">
         <v>143.988064</v>
       </c>
-      <c r="AP6" s="3" t="n">
+      <c r="AV6" s="3" t="n">
         <v>159.632</v>
       </c>
-      <c r="AQ6" s="3" t="n">
+      <c r="AW6" s="3" t="n">
         <v>7.9816</v>
       </c>
-      <c r="AR6" s="3" t="n">
+      <c r="AX6" s="3" t="n">
         <v>175.275936</v>
       </c>
     </row>
@@ -1434,117 +1560,135 @@
         <v>263</v>
       </c>
       <c r="G7" s="3" t="n">
+        <v>108.24</v>
+      </c>
+      <c r="H7" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="I7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>131.76</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>48.708</v>
+      </c>
+      <c r="L7" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="M7" s="3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>59.292</v>
+      </c>
+      <c r="O7" s="3" t="n">
         <v>327.784</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="P7" s="3" t="n">
         <v>351</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="Q7" s="3" t="n">
         <v>13.6357142857143</v>
       </c>
-      <c r="L7" s="3" t="n">
+      <c r="R7" s="3" t="n">
         <v>381.236</v>
       </c>
-      <c r="M7" s="3" t="n">
+      <c r="S7" s="3" t="n">
         <v>366.473</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="T7" s="3" t="n">
         <v>402.2</v>
       </c>
-      <c r="O7" s="3" t="n">
+      <c r="U7" s="3" t="n">
         <v>21.0477040816327</v>
       </c>
-      <c r="P7" s="3" t="n">
+      <c r="V7" s="3" t="n">
         <v>448.98</v>
       </c>
-      <c r="Q7" s="3" t="n">
+      <c r="W7" s="3" t="n">
         <v>320.004</v>
       </c>
-      <c r="R7" s="3" t="n">
+      <c r="X7" s="3" t="n">
         <v>362.111</v>
       </c>
-      <c r="S7" s="3" t="n">
+      <c r="Y7" s="3" t="n">
         <v>28.0377551020408</v>
       </c>
-      <c r="T7" s="3" t="n">
+      <c r="Z7" s="3" t="n">
         <v>429.912</v>
       </c>
-      <c r="U7" s="3" t="n">
+      <c r="AA7" s="3" t="n">
         <v>318.221</v>
       </c>
-      <c r="V7" s="3" t="n">
+      <c r="AB7" s="3" t="n">
         <v>359.182</v>
       </c>
-      <c r="W7" s="3" t="n">
+      <c r="AC7" s="3" t="n">
         <v>27.265306122449</v>
       </c>
-      <c r="X7" s="3" t="n">
+      <c r="AD7" s="3" t="n">
         <v>425.101</v>
       </c>
-      <c r="Y7" s="3" t="n">
+      <c r="AE7" s="3" t="n">
         <v>289.172</v>
       </c>
-      <c r="Z7" s="3" t="n">
+      <c r="AF7" s="3" t="n">
         <v>308.065</v>
       </c>
-      <c r="AA7" s="3" t="n">
+      <c r="AG7" s="3" t="n">
         <v>12.0244897959184</v>
       </c>
-      <c r="AB7" s="3" t="n">
+      <c r="AH7" s="3" t="n">
         <v>336.308</v>
       </c>
-      <c r="AC7" s="3" t="n">
+      <c r="AI7" s="3" t="n">
         <v>366.229</v>
       </c>
-      <c r="AD7" s="3" t="n">
+      <c r="AJ7" s="3" t="n">
         <v>431.433</v>
       </c>
-      <c r="AE7" s="3" t="n">
+      <c r="AK7" s="3" t="n">
         <v>42.6795918367347</v>
       </c>
-      <c r="AF7" s="3" t="n">
+      <c r="AL7" s="3" t="n">
         <v>533.533</v>
       </c>
-      <c r="AG7" s="3" t="n">
+      <c r="AM7" s="3" t="n">
         <v>337.867</v>
       </c>
-      <c r="AH7" s="3" t="n">
+      <c r="AN7" s="3" t="n">
         <v>380.125</v>
       </c>
-      <c r="AI7" s="3" t="n">
+      <c r="AO7" s="3" t="n">
         <v>26.8045918367347</v>
       </c>
-      <c r="AJ7" s="3" t="n">
+      <c r="AP7" s="3" t="n">
         <v>442.941</v>
       </c>
-      <c r="AK7" s="3" t="n">
+      <c r="AQ7" s="3" t="n">
         <v>345.681</v>
       </c>
-      <c r="AL7" s="3" t="n">
+      <c r="AR7" s="3" t="n">
         <v>375.985</v>
       </c>
-      <c r="AM7" s="3" t="n">
+      <c r="AS7" s="3" t="n">
         <v>17.9354591836735</v>
       </c>
-      <c r="AN7" s="3" t="n">
+      <c r="AT7" s="3" t="n">
         <v>415.988</v>
       </c>
-      <c r="AO7" s="3" t="n">
+      <c r="AU7" s="3" t="n">
         <v>184.308666666667</v>
       </c>
-      <c r="AP7" s="3" t="n">
+      <c r="AV7" s="3" t="n">
         <v>204.333333333333</v>
       </c>
-      <c r="AQ7" s="3" t="n">
+      <c r="AW7" s="3" t="n">
         <v>10.2166666666667</v>
       </c>
-      <c r="AR7" s="3" t="n">
+      <c r="AX7" s="3" t="n">
         <v>224.358</v>
       </c>
     </row>
@@ -1570,117 +1714,135 @@
         <v>283</v>
       </c>
       <c r="G8" s="3" t="n">
+        <v>120.868</v>
+      </c>
+      <c r="H8" s="3" t="n">
         <v>134</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="I8" s="3" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>147.132</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>43.296</v>
+      </c>
+      <c r="L8" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="M8" s="3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>52.704</v>
+      </c>
+      <c r="O8" s="3" t="n">
         <v>362.61</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="P8" s="3" t="n">
         <v>387.857</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="Q8" s="3" t="n">
         <v>14.6959183673469</v>
       </c>
-      <c r="L8" s="3" t="n">
+      <c r="R8" s="3" t="n">
         <v>420.218</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="S8" s="3" t="n">
         <v>415.179</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="T8" s="3" t="n">
         <v>455</v>
       </c>
-      <c r="O8" s="3" t="n">
+      <c r="U8" s="3" t="n">
         <v>23.1617346938776</v>
       </c>
-      <c r="P8" s="3" t="n">
+      <c r="V8" s="3" t="n">
         <v>505.973</v>
       </c>
-      <c r="Q8" s="3" t="n">
+      <c r="W8" s="3" t="n">
         <v>374.091</v>
       </c>
-      <c r="R8" s="3" t="n">
+      <c r="X8" s="3" t="n">
         <v>433.321</v>
       </c>
-      <c r="S8" s="3" t="n">
+      <c r="Y8" s="3" t="n">
         <v>39.0724489795918</v>
       </c>
-      <c r="T8" s="3" t="n">
+      <c r="Z8" s="3" t="n">
         <v>527.255</v>
       </c>
-      <c r="U8" s="3" t="n">
+      <c r="AA8" s="3" t="n">
         <v>371.46</v>
       </c>
-      <c r="V8" s="3" t="n">
+      <c r="AB8" s="3" t="n">
         <v>428.878</v>
       </c>
-      <c r="W8" s="3" t="n">
+      <c r="AC8" s="3" t="n">
         <v>37.8364795918367</v>
       </c>
-      <c r="X8" s="3" t="n">
+      <c r="AD8" s="3" t="n">
         <v>519.779</v>
       </c>
-      <c r="Y8" s="3" t="n">
+      <c r="AE8" s="3" t="n">
         <v>315.886</v>
       </c>
-      <c r="Z8" s="3" t="n">
+      <c r="AF8" s="3" t="n">
         <v>335.69</v>
       </c>
-      <c r="AA8" s="3" t="n">
+      <c r="AG8" s="3" t="n">
         <v>12.4372448979592</v>
       </c>
-      <c r="AB8" s="3" t="n">
+      <c r="AH8" s="3" t="n">
         <v>364.64</v>
       </c>
-      <c r="AC8" s="3" t="n">
+      <c r="AI8" s="3" t="n">
         <v>437.367</v>
       </c>
-      <c r="AD8" s="3" t="n">
+      <c r="AJ8" s="3" t="n">
         <v>524.069</v>
       </c>
-      <c r="AE8" s="3" t="n">
+      <c r="AK8" s="3" t="n">
         <v>55.902806122449</v>
       </c>
-      <c r="AF8" s="3" t="n">
+      <c r="AL8" s="3" t="n">
         <v>656.506</v>
       </c>
-      <c r="AG8" s="3" t="n">
+      <c r="AM8" s="3" t="n">
         <v>388.952</v>
       </c>
-      <c r="AH8" s="3" t="n">
+      <c r="AN8" s="3" t="n">
         <v>440.216</v>
       </c>
-      <c r="AI8" s="3" t="n">
+      <c r="AO8" s="3" t="n">
         <v>31.9369897959184</v>
       </c>
-      <c r="AJ8" s="3" t="n">
+      <c r="AP8" s="3" t="n">
         <v>514.145</v>
       </c>
-      <c r="AK8" s="3" t="n">
+      <c r="AQ8" s="3" t="n">
         <v>408.191</v>
       </c>
-      <c r="AL8" s="3" t="n">
+      <c r="AR8" s="3" t="n">
         <v>453.983</v>
       </c>
-      <c r="AM8" s="3" t="n">
+      <c r="AS8" s="3" t="n">
         <v>27.3196428571429</v>
       </c>
-      <c r="AN8" s="3" t="n">
+      <c r="AT8" s="3" t="n">
         <v>515.284</v>
       </c>
-      <c r="AO8" s="3" t="n">
+      <c r="AU8" s="3" t="n">
         <v>216.293288629738</v>
       </c>
-      <c r="AP8" s="3" t="n">
+      <c r="AV8" s="3" t="n">
         <v>239.793002915452</v>
       </c>
-      <c r="AQ8" s="3" t="n">
+      <c r="AW8" s="3" t="n">
         <v>11.9896501457726</v>
       </c>
-      <c r="AR8" s="3" t="n">
+      <c r="AX8" s="3" t="n">
         <v>263.292717201166</v>
       </c>
     </row>
@@ -1706,117 +1868,135 @@
         <v>303</v>
       </c>
       <c r="G9" s="3" t="n">
+        <v>128.084</v>
+      </c>
+      <c r="H9" s="3" t="n">
         <v>142</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="I9" s="3" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>155.916</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>55.924</v>
+      </c>
+      <c r="L9" s="3" t="n">
         <v>62</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="M9" s="3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>68.07599999999999</v>
+      </c>
+      <c r="O9" s="3" t="n">
         <v>397.751</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="P9" s="3" t="n">
         <v>424.25</v>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="Q9" s="3" t="n">
         <v>15.3522959183674</v>
       </c>
-      <c r="L9" s="3" t="n">
+      <c r="R9" s="3" t="n">
         <v>457.932</v>
       </c>
-      <c r="M9" s="3" t="n">
+      <c r="S9" s="3" t="n">
         <v>448.861</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="T9" s="3" t="n">
         <v>490.893</v>
       </c>
-      <c r="O9" s="3" t="n">
+      <c r="U9" s="3" t="n">
         <v>24.4724489795918</v>
       </c>
-      <c r="P9" s="3" t="n">
+      <c r="V9" s="3" t="n">
         <v>544.793</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="W9" s="3" t="n">
         <v>391.776</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="X9" s="3" t="n">
         <v>442.286</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="Y9" s="3" t="n">
         <v>32.8622448979592</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="Z9" s="3" t="n">
         <v>520.596</v>
       </c>
-      <c r="U9" s="3" t="n">
+      <c r="AA9" s="3" t="n">
         <v>389.737</v>
       </c>
-      <c r="V9" s="3" t="n">
+      <c r="AB9" s="3" t="n">
         <v>439.042</v>
       </c>
-      <c r="W9" s="3" t="n">
+      <c r="AC9" s="3" t="n">
         <v>32.0660714285714</v>
       </c>
-      <c r="X9" s="3" t="n">
+      <c r="AD9" s="3" t="n">
         <v>515.436</v>
       </c>
-      <c r="Y9" s="3" t="n">
+      <c r="AE9" s="3" t="n">
         <v>342.192</v>
       </c>
-      <c r="Z9" s="3" t="n">
+      <c r="AF9" s="3" t="n">
         <v>361.311</v>
       </c>
-      <c r="AA9" s="3" t="n">
+      <c r="AG9" s="3" t="n">
         <v>11.965306122449</v>
       </c>
-      <c r="AB9" s="3" t="n">
+      <c r="AH9" s="3" t="n">
         <v>389.096</v>
       </c>
-      <c r="AC9" s="3" t="n">
+      <c r="AI9" s="3" t="n">
         <v>488.641</v>
       </c>
-      <c r="AD9" s="3" t="n">
+      <c r="AJ9" s="3" t="n">
         <v>582.333</v>
       </c>
-      <c r="AE9" s="3" t="n">
+      <c r="AK9" s="3" t="n">
         <v>59.6732142857143</v>
       </c>
-      <c r="AF9" s="3" t="n">
+      <c r="AL9" s="3" t="n">
         <v>722.5599999999999</v>
       </c>
-      <c r="AG9" s="3" t="n">
+      <c r="AM9" s="3" t="n">
         <v>429.6</v>
       </c>
-      <c r="AH9" s="3" t="n">
+      <c r="AN9" s="3" t="n">
         <v>483.349</v>
       </c>
-      <c r="AI9" s="3" t="n">
+      <c r="AO9" s="3" t="n">
         <v>33.1094387755102</v>
       </c>
-      <c r="AJ9" s="3" t="n">
+      <c r="AP9" s="3" t="n">
         <v>559.389</v>
       </c>
-      <c r="AK9" s="3" t="n">
+      <c r="AQ9" s="3" t="n">
         <v>431.344</v>
       </c>
-      <c r="AL9" s="3" t="n">
+      <c r="AR9" s="3" t="n">
         <v>468.127</v>
       </c>
-      <c r="AM9" s="3" t="n">
+      <c r="AS9" s="3" t="n">
         <v>21.3946428571429</v>
       </c>
-      <c r="AN9" s="3" t="n">
+      <c r="AT9" s="3" t="n">
         <v>515.211</v>
       </c>
-      <c r="AO9" s="3" t="n">
+      <c r="AU9" s="3" t="n">
         <v>251.087203125</v>
       </c>
-      <c r="AP9" s="3" t="n">
+      <c r="AV9" s="3" t="n">
         <v>278.3671875</v>
       </c>
-      <c r="AQ9" s="3" t="n">
+      <c r="AW9" s="3" t="n">
         <v>13.918359375</v>
       </c>
-      <c r="AR9" s="3" t="n">
+      <c r="AX9" s="3" t="n">
         <v>305.647171875</v>
       </c>
     </row>
@@ -1842,117 +2022,135 @@
         <v>304</v>
       </c>
       <c r="G10" s="3" t="n">
+        <v>127.182</v>
+      </c>
+      <c r="H10" s="3" t="n">
         <v>141</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="I10" s="3" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>154.818</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>57.728</v>
+      </c>
+      <c r="L10" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="M10" s="3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>70.27200000000001</v>
+      </c>
+      <c r="O10" s="3" t="n">
         <v>402.619</v>
       </c>
-      <c r="J10" s="3" t="n">
+      <c r="P10" s="3" t="n">
         <v>429.333</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="Q10" s="3" t="n">
         <v>15.4757653061224</v>
       </c>
-      <c r="L10" s="3" t="n">
+      <c r="R10" s="3" t="n">
         <v>463.284</v>
       </c>
-      <c r="M10" s="3" t="n">
+      <c r="S10" s="3" t="n">
         <v>452.743</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="T10" s="3" t="n">
         <v>495.444</v>
       </c>
-      <c r="O10" s="3" t="n">
+      <c r="U10" s="3" t="n">
         <v>24.9135204081633</v>
       </c>
-      <c r="P10" s="3" t="n">
+      <c r="V10" s="3" t="n">
         <v>550.404</v>
       </c>
-      <c r="Q10" s="3" t="n">
+      <c r="W10" s="3" t="n">
         <v>393.085</v>
       </c>
-      <c r="R10" s="3" t="n">
+      <c r="X10" s="3" t="n">
         <v>442.062</v>
       </c>
-      <c r="S10" s="3" t="n">
+      <c r="Y10" s="3" t="n">
         <v>31.8579081632653</v>
       </c>
-      <c r="T10" s="3" t="n">
+      <c r="Z10" s="3" t="n">
         <v>517.968</v>
       </c>
-      <c r="U10" s="3" t="n">
+      <c r="AA10" s="3" t="n">
         <v>391.131</v>
       </c>
-      <c r="V10" s="3" t="n">
+      <c r="AB10" s="3" t="n">
         <v>438.974</v>
       </c>
-      <c r="W10" s="3" t="n">
+      <c r="AC10" s="3" t="n">
         <v>31.1112244897959</v>
       </c>
-      <c r="X10" s="3" t="n">
+      <c r="AD10" s="3" t="n">
         <v>513.087</v>
       </c>
-      <c r="Y10" s="3" t="n">
+      <c r="AE10" s="3" t="n">
         <v>345.312</v>
       </c>
-      <c r="Z10" s="3" t="n">
+      <c r="AF10" s="3" t="n">
         <v>364.021</v>
       </c>
-      <c r="AA10" s="3" t="n">
+      <c r="AG10" s="3" t="n">
         <v>11.706887755102</v>
       </c>
-      <c r="AB10" s="3" t="n">
+      <c r="AH10" s="3" t="n">
         <v>391.203</v>
       </c>
-      <c r="AC10" s="3" t="n">
+      <c r="AI10" s="3" t="n">
         <v>485.556</v>
       </c>
-      <c r="AD10" s="3" t="n">
+      <c r="AJ10" s="3" t="n">
         <v>575.579</v>
       </c>
-      <c r="AE10" s="3" t="n">
+      <c r="AK10" s="3" t="n">
         <v>57.3170918367347</v>
       </c>
-      <c r="AF10" s="3" t="n">
+      <c r="AL10" s="3" t="n">
         <v>710.239</v>
       </c>
-      <c r="AG10" s="3" t="n">
+      <c r="AM10" s="3" t="n">
         <v>430.024</v>
       </c>
-      <c r="AH10" s="3" t="n">
+      <c r="AN10" s="3" t="n">
         <v>482.294</v>
       </c>
-      <c r="AI10" s="3" t="n">
+      <c r="AO10" s="3" t="n">
         <v>32.1989795918367</v>
       </c>
-      <c r="AJ10" s="3" t="n">
+      <c r="AP10" s="3" t="n">
         <v>556.244</v>
       </c>
-      <c r="AK10" s="3" t="n">
+      <c r="AQ10" s="3" t="n">
         <v>432.283</v>
       </c>
-      <c r="AL10" s="3" t="n">
+      <c r="AR10" s="3" t="n">
         <v>467.661</v>
       </c>
-      <c r="AM10" s="3" t="n">
+      <c r="AS10" s="3" t="n">
         <v>20.5392857142857</v>
       </c>
-      <c r="AN10" s="3" t="n">
+      <c r="AT10" s="3" t="n">
         <v>512.797</v>
       </c>
-      <c r="AO10" s="3" t="n">
+      <c r="AU10" s="3" t="n">
         <v>263.740345679012</v>
       </c>
-      <c r="AP10" s="3" t="n">
+      <c r="AV10" s="3" t="n">
         <v>292.395061728395</v>
       </c>
-      <c r="AQ10" s="3" t="n">
+      <c r="AW10" s="3" t="n">
         <v>14.6197530864198</v>
       </c>
-      <c r="AR10" s="3" t="n">
+      <c r="AX10" s="3" t="n">
         <v>321.049777777778</v>
       </c>
     </row>

--- a/python_Proyect/Resultados/Estimadores_frecuencia.xlsx
+++ b/python_Proyect/Resultados/Estimadores_frecuencia.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -490,10 +490,10 @@
     <col width="24" customWidth="1" min="24" max="24"/>
     <col width="22" customWidth="1" min="25" max="25"/>
     <col width="23" customWidth="1" min="26" max="26"/>
-    <col width="15" customWidth="1" min="27" max="27"/>
+    <col width="19" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="19" customWidth="1" min="29" max="29"/>
-    <col width="15" customWidth="1" min="30" max="30"/>
+    <col width="19" customWidth="1" min="30" max="30"/>
     <col width="24" customWidth="1" min="31" max="31"/>
     <col width="25" customWidth="1" min="32" max="32"/>
     <col width="23" customWidth="1" min="33" max="33"/>
@@ -778,16 +778,16 @@
         <v>96</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>95.938</v>
+        <v>96.11799999999999</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>7.88176872778428</v>
+        <v>7.96903893713549</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>111</v>
+        <v>112.025</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>86.592</v>
@@ -814,112 +814,112 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3" t="n">
-        <v>95.938</v>
+        <v>96.11799999999999</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>7.88176872778428</v>
+        <v>7.96903893713549</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>111</v>
+        <v>112.025</v>
       </c>
       <c r="S2" s="3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T2" s="3" t="n">
-        <v>95.938</v>
+        <v>96.11799999999999</v>
       </c>
       <c r="U2" s="3" t="n">
-        <v>7.88176872778428</v>
+        <v>7.96903893713549</v>
       </c>
       <c r="V2" s="3" t="n">
-        <v>111</v>
+        <v>112.025</v>
       </c>
       <c r="W2" s="3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X2" s="3" t="n">
-        <v>95.938</v>
+        <v>96.11799999999999</v>
       </c>
       <c r="Y2" s="3" t="n">
-        <v>7.88176872778428</v>
+        <v>7.96903893713549</v>
       </c>
       <c r="Z2" s="3" t="n">
-        <v>111</v>
+        <v>112.025</v>
       </c>
       <c r="AA2" s="3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB2" s="3" t="n">
-        <v>95.938</v>
+        <v>96.11799999999999</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>7.88176872778428</v>
+        <v>7.96903893713549</v>
       </c>
       <c r="AD2" s="3" t="n">
-        <v>111</v>
+        <v>112.025</v>
       </c>
       <c r="AE2" s="3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AF2" s="3" t="n">
-        <v>95.938</v>
+        <v>96.11799999999999</v>
       </c>
       <c r="AG2" s="3" t="n">
-        <v>7.88176872778428</v>
+        <v>7.96903893713549</v>
       </c>
       <c r="AH2" s="3" t="n">
-        <v>111</v>
+        <v>112.025</v>
       </c>
       <c r="AI2" s="3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AJ2" s="3" t="n">
-        <v>95.938</v>
+        <v>96.11799999999999</v>
       </c>
       <c r="AK2" s="3" t="n">
-        <v>7.88176872778428</v>
+        <v>7.96903893713549</v>
       </c>
       <c r="AL2" s="3" t="n">
-        <v>111</v>
+        <v>112.025</v>
       </c>
       <c r="AM2" s="3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN2" s="3" t="n">
-        <v>95.938</v>
+        <v>96.11799999999999</v>
       </c>
       <c r="AO2" s="3" t="n">
-        <v>7.88176872778428</v>
+        <v>7.96903893713549</v>
       </c>
       <c r="AP2" s="3" t="n">
-        <v>111</v>
+        <v>112.025</v>
       </c>
       <c r="AQ2" s="3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AR2" s="3" t="n">
-        <v>95.938</v>
+        <v>96.11799999999999</v>
       </c>
       <c r="AS2" s="3" t="n">
-        <v>7.88176872778428</v>
+        <v>7.96903893713549</v>
       </c>
       <c r="AT2" s="3" t="n">
-        <v>111</v>
+        <v>112.025</v>
       </c>
       <c r="AU2" s="3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV2" s="3" t="n">
-        <v>95.938</v>
+        <v>96.11799999999999</v>
       </c>
       <c r="AW2" s="3" t="n">
-        <v>7.88176872778428</v>
+        <v>7.96903893713549</v>
       </c>
       <c r="AX2" s="3" t="n">
-        <v>111</v>
+        <v>112.025</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
@@ -932,16 +932,16 @@
         <v>96</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>96.97499999999999</v>
+        <v>97</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>113.112</v>
+        <v>113.489</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>8.50939867827721</v>
+        <v>8.959137522392719</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>75.768</v>
@@ -968,112 +968,112 @@
         <v>31.842</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>141.368666666667</v>
+        <v>140.702</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>158.125333333333</v>
+        <v>158.245333333333</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>9.292352621243939</v>
+        <v>9.35053276081142</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>177.197</v>
+        <v>177.880333333333</v>
       </c>
       <c r="S3" s="3" t="n">
-        <v>152.398</v>
+        <v>151.731333333333</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>172.236333333333</v>
+        <v>172.356333333333</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>11.0799376552575</v>
+        <v>11.138117794825</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>195.233666666667</v>
+        <v>195.917</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>144.484333333333</v>
+        <v>143.817666666667</v>
       </c>
       <c r="X3" s="3" t="n">
-        <v>170.428</v>
+        <v>170.548</v>
       </c>
       <c r="Y3" s="3" t="n">
-        <v>16.1469444579786</v>
+        <v>16.2051245975461</v>
       </c>
       <c r="Z3" s="3" t="n">
-        <v>207.182666666667</v>
+        <v>207.866</v>
       </c>
       <c r="AA3" s="3" t="n">
-        <v>143.719</v>
+        <v>143.052333333333</v>
       </c>
       <c r="AB3" s="3" t="n">
-        <v>169.054666666667</v>
+        <v>169.174666666667</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>15.7167573831487</v>
+        <v>15.7749375227162</v>
       </c>
       <c r="AD3" s="3" t="n">
-        <v>204.731</v>
+        <v>205.414333333333</v>
       </c>
       <c r="AE3" s="3" t="n">
-        <v>134.955333333333</v>
+        <v>134.288666666667</v>
       </c>
       <c r="AF3" s="3" t="n">
-        <v>152.491666666667</v>
+        <v>152.611666666667</v>
       </c>
       <c r="AG3" s="3" t="n">
-        <v>10.1459240498154</v>
+        <v>10.2041041893828</v>
       </c>
       <c r="AH3" s="3" t="n">
-        <v>174.129666666667</v>
+        <v>174.813</v>
       </c>
       <c r="AI3" s="3" t="n">
-        <v>153.388333333333</v>
+        <v>152.721666666667</v>
       </c>
       <c r="AJ3" s="3" t="n">
-        <v>184.715333333333</v>
+        <v>184.835333333333</v>
       </c>
       <c r="AK3" s="3" t="n">
-        <v>19.7166723491351</v>
+        <v>19.7748524887026</v>
       </c>
       <c r="AL3" s="3" t="n">
-        <v>230.08</v>
+        <v>230.763333333333</v>
       </c>
       <c r="AM3" s="3" t="n">
-        <v>146.389333333333</v>
+        <v>145.722666666667</v>
       </c>
       <c r="AN3" s="3" t="n">
-        <v>170.830333333333</v>
+        <v>170.950333333333</v>
       </c>
       <c r="AO3" s="3" t="n">
-        <v>14.7237301722644</v>
+        <v>14.7819103118318</v>
       </c>
       <c r="AP3" s="3" t="n">
-        <v>203.508666666667</v>
+        <v>204.192</v>
       </c>
       <c r="AQ3" s="3" t="n">
-        <v>151.686333333333</v>
+        <v>151.019666666667</v>
       </c>
       <c r="AR3" s="3" t="n">
-        <v>173.757</v>
+        <v>173.877</v>
       </c>
       <c r="AS3" s="3" t="n">
-        <v>12.6404818729446</v>
+        <v>12.6986620125121</v>
       </c>
       <c r="AT3" s="3" t="n">
-        <v>200.639333333333</v>
+        <v>201.322666666667</v>
       </c>
       <c r="AU3" s="3" t="n">
-        <v>65.55687500000001</v>
+        <v>64.89020833333331</v>
       </c>
       <c r="AV3" s="3" t="n">
-        <v>76.7711666666667</v>
+        <v>76.89116666666671</v>
       </c>
       <c r="AW3" s="3" t="n">
-        <v>5.89513748518952</v>
+        <v>5.95331762475699</v>
       </c>
       <c r="AX3" s="3" t="n">
-        <v>88.06812499999999</v>
+        <v>88.7514583333333</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
@@ -1086,16 +1086,16 @@
         <v>96</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>149.244</v>
+        <v>149.417</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>8.86075487624937</v>
+        <v>8.398907824988481</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>76.67</v>
@@ -1122,112 +1122,112 @@
         <v>47.214</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>201.737333333333</v>
+        <v>201.404</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>220.312666666667</v>
+        <v>220.372666666667</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>10.7029365147036</v>
+        <v>10.7320265844873</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>243.394</v>
+        <v>243.735666666667</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>223.796</v>
+        <v>223.462666666667</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>248.534666666667</v>
+        <v>248.594666666667</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>14.2781065827308</v>
+        <v>14.3071966525146</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>279.467333333333</v>
+        <v>279.809</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>207.968666666667</v>
+        <v>207.635333333333</v>
       </c>
       <c r="X4" s="3" t="n">
-        <v>244.918</v>
+        <v>244.978</v>
       </c>
       <c r="Y4" s="3" t="n">
-        <v>24.412120188173</v>
+        <v>24.4412102579567</v>
       </c>
       <c r="Z4" s="3" t="n">
-        <v>303.365333333333</v>
+        <v>303.707</v>
       </c>
       <c r="AA4" s="3" t="n">
-        <v>206.438</v>
+        <v>206.104666666667</v>
       </c>
       <c r="AB4" s="3" t="n">
-        <v>242.171333333333</v>
+        <v>242.231333333333</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>23.5517460385131</v>
+        <v>23.5808361082969</v>
       </c>
       <c r="AD4" s="3" t="n">
-        <v>298.462</v>
+        <v>298.803666666667</v>
       </c>
       <c r="AE4" s="3" t="n">
-        <v>188.910666666667</v>
+        <v>188.577333333333</v>
       </c>
       <c r="AF4" s="3" t="n">
-        <v>209.045333333333</v>
+        <v>209.105333333333</v>
       </c>
       <c r="AG4" s="3" t="n">
-        <v>12.4100793718465</v>
+        <v>12.4391694416302</v>
       </c>
       <c r="AH4" s="3" t="n">
-        <v>237.259333333333</v>
+        <v>237.601</v>
       </c>
       <c r="AI4" s="3" t="n">
-        <v>225.776666666667</v>
+        <v>225.443333333333</v>
       </c>
       <c r="AJ4" s="3" t="n">
-        <v>273.492666666667</v>
+        <v>273.552666666667</v>
       </c>
       <c r="AK4" s="3" t="n">
-        <v>31.5515759704859</v>
+        <v>31.5806660402696</v>
       </c>
       <c r="AL4" s="3" t="n">
-        <v>349.16</v>
+        <v>349.501666666667</v>
       </c>
       <c r="AM4" s="3" t="n">
-        <v>211.778666666667</v>
+        <v>211.445333333333</v>
       </c>
       <c r="AN4" s="3" t="n">
-        <v>245.722666666667</v>
+        <v>245.782666666667</v>
       </c>
       <c r="AO4" s="3" t="n">
-        <v>21.5656916167444</v>
+        <v>21.5947816865282</v>
       </c>
       <c r="AP4" s="3" t="n">
-        <v>296.017333333333</v>
+        <v>296.359</v>
       </c>
       <c r="AQ4" s="3" t="n">
-        <v>222.372666666667</v>
+        <v>222.039333333333</v>
       </c>
       <c r="AR4" s="3" t="n">
-        <v>251.576</v>
+        <v>251.636</v>
       </c>
       <c r="AS4" s="3" t="n">
-        <v>17.399195018105</v>
+        <v>17.4282850878887</v>
       </c>
       <c r="AT4" s="3" t="n">
-        <v>290.278666666667</v>
+        <v>290.620333333333</v>
       </c>
       <c r="AU4" s="3" t="n">
-        <v>50.11375</v>
+        <v>49.7804166666667</v>
       </c>
       <c r="AV4" s="3" t="n">
-        <v>57.6043333333333</v>
+        <v>57.6643333333333</v>
       </c>
       <c r="AW4" s="3" t="n">
-        <v>3.90850624259476</v>
+        <v>3.9375963123785</v>
       </c>
       <c r="AX4" s="3" t="n">
-        <v>65.13625</v>
+        <v>65.4779166666667</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
@@ -1240,13 +1240,13 @@
         <v>200</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>199.686</v>
+        <v>199.8</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>8.344521258588481</v>
+        <v>8.126748676072371</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>216</v>
@@ -1394,16 +1394,16 @@
         <v>236</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>235.604</v>
+        <v>236.156</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>7.28094747929115</v>
+        <v>7.214548753298</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>250</v>
+        <v>250.025</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>100.122</v>
@@ -1551,13 +1551,13 @@
         <v>238</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>250.802</v>
+        <v>250.997</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>6.27759541577858</v>
+        <v>6.54567313855778</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>108.24</v>
@@ -1702,13 +1702,13 @@
         <v>273</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>273.414</v>
+        <v>273.343</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>5.18917445568479</v>
+        <v>5.26679125180504</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>283</v>
@@ -1859,10 +1859,10 @@
         <v>296</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>300.07</v>
+        <v>299.987</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>2.00077562537709</v>
+        <v>1.98109963297048</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>303</v>

--- a/python_Proyect/Resultados/Estimadores_frecuencia.xlsx
+++ b/python_Proyect/Resultados/Estimadores_frecuencia.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -490,7 +490,7 @@
     <col width="24" customWidth="1" min="24" max="24"/>
     <col width="22" customWidth="1" min="25" max="25"/>
     <col width="23" customWidth="1" min="26" max="26"/>
-    <col width="19" customWidth="1" min="27" max="27"/>
+    <col width="15" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="19" customWidth="1" min="29" max="29"/>
     <col width="19" customWidth="1" min="30" max="30"/>
@@ -778,16 +778,16 @@
         <v>96</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>96.11799999999999</v>
+        <v>96.199</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>7.96903893713549</v>
+        <v>8.227581181130461</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>112.025</v>
+        <v>113</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>86.592</v>
@@ -814,112 +814,112 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P2" s="3" t="n">
-        <v>96.11799999999999</v>
+        <v>96.199</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>7.96903893713549</v>
+        <v>8.227581181130461</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>112.025</v>
+        <v>113</v>
       </c>
       <c r="S2" s="3" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T2" s="3" t="n">
-        <v>96.11799999999999</v>
+        <v>96.199</v>
       </c>
       <c r="U2" s="3" t="n">
-        <v>7.96903893713549</v>
+        <v>8.227581181130461</v>
       </c>
       <c r="V2" s="3" t="n">
-        <v>112.025</v>
+        <v>113</v>
       </c>
       <c r="W2" s="3" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X2" s="3" t="n">
-        <v>96.11799999999999</v>
+        <v>96.199</v>
       </c>
       <c r="Y2" s="3" t="n">
-        <v>7.96903893713549</v>
+        <v>8.227581181130461</v>
       </c>
       <c r="Z2" s="3" t="n">
-        <v>112.025</v>
+        <v>113</v>
       </c>
       <c r="AA2" s="3" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB2" s="3" t="n">
-        <v>96.11799999999999</v>
+        <v>96.199</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>7.96903893713549</v>
+        <v>8.227581181130461</v>
       </c>
       <c r="AD2" s="3" t="n">
-        <v>112.025</v>
+        <v>113</v>
       </c>
       <c r="AE2" s="3" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF2" s="3" t="n">
-        <v>96.11799999999999</v>
+        <v>96.199</v>
       </c>
       <c r="AG2" s="3" t="n">
-        <v>7.96903893713549</v>
+        <v>8.227581181130461</v>
       </c>
       <c r="AH2" s="3" t="n">
-        <v>112.025</v>
+        <v>113</v>
       </c>
       <c r="AI2" s="3" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ2" s="3" t="n">
-        <v>96.11799999999999</v>
+        <v>96.199</v>
       </c>
       <c r="AK2" s="3" t="n">
-        <v>7.96903893713549</v>
+        <v>8.227581181130461</v>
       </c>
       <c r="AL2" s="3" t="n">
-        <v>112.025</v>
+        <v>113</v>
       </c>
       <c r="AM2" s="3" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN2" s="3" t="n">
-        <v>96.11799999999999</v>
+        <v>96.199</v>
       </c>
       <c r="AO2" s="3" t="n">
-        <v>7.96903893713549</v>
+        <v>8.227581181130461</v>
       </c>
       <c r="AP2" s="3" t="n">
-        <v>112.025</v>
+        <v>113</v>
       </c>
       <c r="AQ2" s="3" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AR2" s="3" t="n">
-        <v>96.11799999999999</v>
+        <v>96.199</v>
       </c>
       <c r="AS2" s="3" t="n">
-        <v>7.96903893713549</v>
+        <v>8.227581181130461</v>
       </c>
       <c r="AT2" s="3" t="n">
-        <v>112.025</v>
+        <v>113</v>
       </c>
       <c r="AU2" s="3" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AV2" s="3" t="n">
-        <v>96.11799999999999</v>
+        <v>96.199</v>
       </c>
       <c r="AW2" s="3" t="n">
-        <v>7.96903893713549</v>
+        <v>8.227581181130461</v>
       </c>
       <c r="AX2" s="3" t="n">
-        <v>112.025</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
@@ -932,16 +932,16 @@
         <v>96</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>113.489</v>
+        <v>112.709</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>8.959137522392719</v>
+        <v>8.542323471415161</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>75.768</v>
@@ -968,112 +968,112 @@
         <v>31.842</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>140.702</v>
+        <v>141.368666666667</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>158.245333333333</v>
+        <v>158.299333333333</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>9.35053276081142</v>
+        <v>9.52289425680806</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>177.880333333333</v>
+        <v>178.530333333333</v>
       </c>
       <c r="S3" s="3" t="n">
-        <v>151.731333333333</v>
+        <v>152.398</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>172.356333333333</v>
+        <v>172.410333333333</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>11.138117794825</v>
+        <v>11.3104792908217</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>195.917</v>
+        <v>196.567</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>143.817666666667</v>
+        <v>144.484333333333</v>
       </c>
       <c r="X3" s="3" t="n">
-        <v>170.548</v>
+        <v>170.602</v>
       </c>
       <c r="Y3" s="3" t="n">
-        <v>16.2051245975461</v>
+        <v>16.3774860935428</v>
       </c>
       <c r="Z3" s="3" t="n">
-        <v>207.866</v>
+        <v>208.516</v>
       </c>
       <c r="AA3" s="3" t="n">
-        <v>143.052333333333</v>
+        <v>143.719</v>
       </c>
       <c r="AB3" s="3" t="n">
-        <v>169.174666666667</v>
+        <v>169.228666666667</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>15.7749375227162</v>
+        <v>15.9472990187128</v>
       </c>
       <c r="AD3" s="3" t="n">
-        <v>205.414333333333</v>
+        <v>206.064333333333</v>
       </c>
       <c r="AE3" s="3" t="n">
-        <v>134.288666666667</v>
+        <v>134.955333333333</v>
       </c>
       <c r="AF3" s="3" t="n">
-        <v>152.611666666667</v>
+        <v>152.665666666667</v>
       </c>
       <c r="AG3" s="3" t="n">
-        <v>10.2041041893828</v>
+        <v>10.3764656853795</v>
       </c>
       <c r="AH3" s="3" t="n">
-        <v>174.813</v>
+        <v>175.463</v>
       </c>
       <c r="AI3" s="3" t="n">
-        <v>152.721666666667</v>
+        <v>153.388333333333</v>
       </c>
       <c r="AJ3" s="3" t="n">
-        <v>184.835333333333</v>
+        <v>184.889333333333</v>
       </c>
       <c r="AK3" s="3" t="n">
-        <v>19.7748524887026</v>
+        <v>19.9472139846992</v>
       </c>
       <c r="AL3" s="3" t="n">
-        <v>230.763333333333</v>
+        <v>231.413333333333</v>
       </c>
       <c r="AM3" s="3" t="n">
-        <v>145.722666666667</v>
+        <v>146.389333333333</v>
       </c>
       <c r="AN3" s="3" t="n">
-        <v>170.950333333333</v>
+        <v>171.004333333333</v>
       </c>
       <c r="AO3" s="3" t="n">
-        <v>14.7819103118318</v>
+        <v>14.9542718078285</v>
       </c>
       <c r="AP3" s="3" t="n">
-        <v>204.192</v>
+        <v>204.842</v>
       </c>
       <c r="AQ3" s="3" t="n">
-        <v>151.019666666667</v>
+        <v>151.686333333333</v>
       </c>
       <c r="AR3" s="3" t="n">
-        <v>173.877</v>
+        <v>173.931</v>
       </c>
       <c r="AS3" s="3" t="n">
-        <v>12.6986620125121</v>
+        <v>12.8710235085087</v>
       </c>
       <c r="AT3" s="3" t="n">
-        <v>201.322666666667</v>
+        <v>201.972666666667</v>
       </c>
       <c r="AU3" s="3" t="n">
-        <v>64.89020833333331</v>
+        <v>65.55687500000001</v>
       </c>
       <c r="AV3" s="3" t="n">
-        <v>76.89116666666671</v>
+        <v>76.94516666666669</v>
       </c>
       <c r="AW3" s="3" t="n">
-        <v>5.95331762475699</v>
+        <v>6.12567912075364</v>
       </c>
       <c r="AX3" s="3" t="n">
-        <v>88.7514583333333</v>
+        <v>89.4014583333333</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
@@ -1086,13 +1086,13 @@
         <v>96</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>149.417</v>
+        <v>148.923</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>8.398907824988481</v>
+        <v>9.115600099015159</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>166</v>
@@ -1122,112 +1122,112 @@
         <v>47.214</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>201.404</v>
+        <v>201.737333333333</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>220.372666666667</v>
+        <v>220.399666666667</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>10.7320265844873</v>
+        <v>10.8182073324857</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>243.735666666667</v>
+        <v>244.060666666667</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>223.462666666667</v>
+        <v>223.796</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>248.594666666667</v>
+        <v>248.621666666667</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>14.3071966525146</v>
+        <v>14.3933774005129</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>279.809</v>
+        <v>280.134</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>207.635333333333</v>
+        <v>207.968666666667</v>
       </c>
       <c r="X4" s="3" t="n">
-        <v>244.978</v>
+        <v>245.005</v>
       </c>
       <c r="Y4" s="3" t="n">
-        <v>24.4412102579567</v>
+        <v>24.5273910059551</v>
       </c>
       <c r="Z4" s="3" t="n">
-        <v>303.707</v>
+        <v>304.032</v>
       </c>
       <c r="AA4" s="3" t="n">
-        <v>206.104666666667</v>
+        <v>206.438</v>
       </c>
       <c r="AB4" s="3" t="n">
-        <v>242.231333333333</v>
+        <v>242.258333333333</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>23.5808361082969</v>
+        <v>23.6670168562952</v>
       </c>
       <c r="AD4" s="3" t="n">
-        <v>298.803666666667</v>
+        <v>299.128666666667</v>
       </c>
       <c r="AE4" s="3" t="n">
-        <v>188.577333333333</v>
+        <v>188.910666666667</v>
       </c>
       <c r="AF4" s="3" t="n">
-        <v>209.105333333333</v>
+        <v>209.132333333333</v>
       </c>
       <c r="AG4" s="3" t="n">
-        <v>12.4391694416302</v>
+        <v>12.5253501896285</v>
       </c>
       <c r="AH4" s="3" t="n">
-        <v>237.601</v>
+        <v>237.926</v>
       </c>
       <c r="AI4" s="3" t="n">
-        <v>225.443333333333</v>
+        <v>225.776666666667</v>
       </c>
       <c r="AJ4" s="3" t="n">
-        <v>273.552666666667</v>
+        <v>273.579666666667</v>
       </c>
       <c r="AK4" s="3" t="n">
-        <v>31.5806660402696</v>
+        <v>31.666846788268</v>
       </c>
       <c r="AL4" s="3" t="n">
-        <v>349.501666666667</v>
+        <v>349.826666666667</v>
       </c>
       <c r="AM4" s="3" t="n">
-        <v>211.445333333333</v>
+        <v>211.778666666667</v>
       </c>
       <c r="AN4" s="3" t="n">
-        <v>245.782666666667</v>
+        <v>245.809666666667</v>
       </c>
       <c r="AO4" s="3" t="n">
-        <v>21.5947816865282</v>
+        <v>21.6809624345265</v>
       </c>
       <c r="AP4" s="3" t="n">
-        <v>296.359</v>
+        <v>296.684</v>
       </c>
       <c r="AQ4" s="3" t="n">
-        <v>222.039333333333</v>
+        <v>222.372666666667</v>
       </c>
       <c r="AR4" s="3" t="n">
-        <v>251.636</v>
+        <v>251.663</v>
       </c>
       <c r="AS4" s="3" t="n">
-        <v>17.4282850878887</v>
+        <v>17.514465835887</v>
       </c>
       <c r="AT4" s="3" t="n">
-        <v>290.620333333333</v>
+        <v>290.945333333333</v>
       </c>
       <c r="AU4" s="3" t="n">
-        <v>49.7804166666667</v>
+        <v>50.11375</v>
       </c>
       <c r="AV4" s="3" t="n">
-        <v>57.6643333333333</v>
+        <v>57.6913333333333</v>
       </c>
       <c r="AW4" s="3" t="n">
-        <v>3.9375963123785</v>
+        <v>4.02377706037682</v>
       </c>
       <c r="AX4" s="3" t="n">
-        <v>65.4779166666667</v>
+        <v>65.8029166666667</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
@@ -1243,13 +1243,13 @@
         <v>184</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>199.8</v>
+        <v>200.016</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>8.126748676072371</v>
+        <v>8.20079246152449</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>216</v>
+        <v>216.025</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>99.22</v>
@@ -1394,16 +1394,16 @@
         <v>236</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>223</v>
+        <v>220.975</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>236.156</v>
+        <v>235.978</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>7.214548753298</v>
+        <v>7.45809219164923</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>250.025</v>
+        <v>250</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>100.122</v>
@@ -1551,10 +1551,10 @@
         <v>238</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>250.997</v>
+        <v>251.162</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>6.54567313855778</v>
+        <v>6.60540592146973</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>264</v>
@@ -1702,13 +1702,13 @@
         <v>273</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>273.343</v>
+        <v>273.129</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>5.26679125180504</v>
+        <v>5.09198264797586</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>283</v>
@@ -1856,13 +1856,13 @@
         <v>300</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>299.987</v>
+        <v>299.945</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>1.98109963297048</v>
+        <v>2.02733447785142</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>303</v>
